--- a/characters.xlsx
+++ b/characters.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\zacseow\Documents\GitHub\vajrabot\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{710A265A-32D6-4F8C-9E84-F83AE2C38F83}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6B4363D1-2EB8-48F5-A3DE-169AFCD70295}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{5250C952-BBBD-4185-97D3-41CA5BEDBBD1}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="653" uniqueCount="130">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="880" uniqueCount="138">
   <si>
     <t>Albedo</t>
   </si>
@@ -415,16 +415,48 @@
   </si>
   <si>
     <t>Katheryne</t>
+  </si>
+  <si>
+    <t>140026874804830208</t>
+  </si>
+  <si>
+    <t>701201673489612820</t>
+  </si>
+  <si>
+    <t>sheet</t>
+  </si>
+  <si>
+    <t>updated</t>
+  </si>
+  <si>
+    <t>thumb</t>
+  </si>
+  <si>
+    <t>https://docs.google.com/document/d/100lzmlySsDAf0dSHegjNt0hiu4s5RE7_f4va-KSGKwY/edit?usp=sharing</t>
+  </si>
+  <si>
+    <t>https://docs.google.com/document/d/1TELIb89h_B4ZPPqwFnUTywn4ta0jc45F-QlimLmAUmw/edit?usp=sharing</t>
+  </si>
+  <si>
+    <t>https://docs.google.com/document/d/1foVOpWGwcPpCrAZS1xUD2_nFEQHn5Xs74rCgWnkCaUU/edit?usp=sharing</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -447,17 +479,21 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -770,10 +806,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{44F7355E-150D-4E2E-B9FD-0B4C76312966}">
-  <dimension ref="A1:F110"/>
+  <dimension ref="A1:I110"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A79" workbookViewId="0">
-      <selection activeCell="J97" sqref="J97"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J9" sqref="J9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -782,9 +818,12 @@
     <col min="2" max="2" width="15.85546875" customWidth="1"/>
     <col min="3" max="3" width="21.5703125" customWidth="1"/>
     <col min="5" max="5" width="27.140625" style="2" customWidth="1"/>
+    <col min="7" max="7" width="23.140625" customWidth="1"/>
+    <col min="8" max="8" width="18.7109375" customWidth="1"/>
+    <col min="9" max="9" width="13.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>25</v>
       </c>
@@ -803,8 +842,17 @@
       <c r="F1" t="s">
         <v>126</v>
       </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G1" t="s">
+        <v>132</v>
+      </c>
+      <c r="H1" t="s">
+        <v>133</v>
+      </c>
+      <c r="I1" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -823,8 +871,18 @@
       <c r="F2" t="s">
         <v>127</v>
       </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G2" t="s">
+        <v>24</v>
+      </c>
+      <c r="H2" s="3">
+        <f ca="1">NOW()-TIME(8,0,0)</f>
+        <v>45374.389056249995</v>
+      </c>
+      <c r="I2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>10</v>
       </c>
@@ -843,8 +901,18 @@
       <c r="F3" t="s">
         <v>127</v>
       </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G3" t="s">
+        <v>24</v>
+      </c>
+      <c r="H3" s="3">
+        <f t="shared" ref="H3:H66" ca="1" si="0">NOW()-TIME(8,0,0)</f>
+        <v>45374.389056249995</v>
+      </c>
+      <c r="I3" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>12</v>
       </c>
@@ -863,8 +931,18 @@
       <c r="F4" t="s">
         <v>127</v>
       </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G4" t="s">
+        <v>24</v>
+      </c>
+      <c r="H4" s="3">
+        <f t="shared" ca="1" si="0"/>
+        <v>45374.389056249995</v>
+      </c>
+      <c r="I4" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>14</v>
       </c>
@@ -883,8 +961,18 @@
       <c r="F5" t="s">
         <v>127</v>
       </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G5" t="s">
+        <v>24</v>
+      </c>
+      <c r="H5" s="3">
+        <f t="shared" ca="1" si="0"/>
+        <v>45374.389056249995</v>
+      </c>
+      <c r="I5" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>8</v>
       </c>
@@ -903,8 +991,18 @@
       <c r="F6" t="s">
         <v>127</v>
       </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G6" t="s">
+        <v>24</v>
+      </c>
+      <c r="H6" s="3">
+        <f t="shared" ca="1" si="0"/>
+        <v>45374.389056249995</v>
+      </c>
+      <c r="I6" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>0</v>
       </c>
@@ -923,8 +1021,18 @@
       <c r="F7" t="s">
         <v>127</v>
       </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G7" t="s">
+        <v>24</v>
+      </c>
+      <c r="H7" s="3">
+        <f t="shared" ca="1" si="0"/>
+        <v>45374.389056249995</v>
+      </c>
+      <c r="I7" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>5</v>
       </c>
@@ -943,8 +1051,18 @@
       <c r="F8" t="s">
         <v>127</v>
       </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G8" t="s">
+        <v>24</v>
+      </c>
+      <c r="H8" s="3">
+        <f t="shared" ca="1" si="0"/>
+        <v>45374.389056249995</v>
+      </c>
+      <c r="I8" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>16</v>
       </c>
@@ -963,8 +1081,18 @@
       <c r="F9" t="s">
         <v>127</v>
       </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G9" t="s">
+        <v>24</v>
+      </c>
+      <c r="H9" s="3">
+        <f t="shared" ca="1" si="0"/>
+        <v>45374.389056249995</v>
+      </c>
+      <c r="I9" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>128</v>
       </c>
@@ -983,8 +1111,18 @@
       <c r="F10" t="s">
         <v>127</v>
       </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G10" t="s">
+        <v>24</v>
+      </c>
+      <c r="H10" s="3">
+        <f t="shared" ca="1" si="0"/>
+        <v>45374.389056249995</v>
+      </c>
+      <c r="I10" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>19</v>
       </c>
@@ -1003,8 +1141,18 @@
       <c r="F11" t="s">
         <v>127</v>
       </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G11" t="s">
+        <v>24</v>
+      </c>
+      <c r="H11" s="3">
+        <f t="shared" ca="1" si="0"/>
+        <v>45374.389056249995</v>
+      </c>
+      <c r="I11" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>7</v>
       </c>
@@ -1023,8 +1171,18 @@
       <c r="F12" t="s">
         <v>127</v>
       </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G12" t="s">
+        <v>24</v>
+      </c>
+      <c r="H12" s="3">
+        <f t="shared" ca="1" si="0"/>
+        <v>45374.389056249995</v>
+      </c>
+      <c r="I12" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>6</v>
       </c>
@@ -1043,8 +1201,18 @@
       <c r="F13" t="s">
         <v>127</v>
       </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G13" t="s">
+        <v>24</v>
+      </c>
+      <c r="H13" s="3">
+        <f t="shared" ca="1" si="0"/>
+        <v>45374.389056249995</v>
+      </c>
+      <c r="I13" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>9</v>
       </c>
@@ -1063,8 +1231,18 @@
       <c r="F14" t="s">
         <v>127</v>
       </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G14" t="s">
+        <v>24</v>
+      </c>
+      <c r="H14" s="3">
+        <f t="shared" ca="1" si="0"/>
+        <v>45374.389056249995</v>
+      </c>
+      <c r="I14" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>3</v>
       </c>
@@ -1083,8 +1261,18 @@
       <c r="F15" t="s">
         <v>127</v>
       </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G15" t="s">
+        <v>24</v>
+      </c>
+      <c r="H15" s="3">
+        <f t="shared" ca="1" si="0"/>
+        <v>45374.389056249995</v>
+      </c>
+      <c r="I15" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>4</v>
       </c>
@@ -1103,8 +1291,18 @@
       <c r="F16" t="s">
         <v>127</v>
       </c>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G16" t="s">
+        <v>24</v>
+      </c>
+      <c r="H16" s="3">
+        <f t="shared" ca="1" si="0"/>
+        <v>45374.389056249995</v>
+      </c>
+      <c r="I16" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>17</v>
       </c>
@@ -1123,8 +1321,18 @@
       <c r="F17" t="s">
         <v>127</v>
       </c>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G17" t="s">
+        <v>24</v>
+      </c>
+      <c r="H17" s="3">
+        <f t="shared" ca="1" si="0"/>
+        <v>45374.389056249995</v>
+      </c>
+      <c r="I17" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>18</v>
       </c>
@@ -1143,8 +1351,18 @@
       <c r="F18" t="s">
         <v>127</v>
       </c>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G18" t="s">
+        <v>24</v>
+      </c>
+      <c r="H18" s="3">
+        <f t="shared" ca="1" si="0"/>
+        <v>45374.389056249995</v>
+      </c>
+      <c r="I18" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>13</v>
       </c>
@@ -1163,8 +1381,18 @@
       <c r="F19" t="s">
         <v>127</v>
       </c>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G19" t="s">
+        <v>24</v>
+      </c>
+      <c r="H19" s="3">
+        <f t="shared" ca="1" si="0"/>
+        <v>45374.389056249995</v>
+      </c>
+      <c r="I19" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>11</v>
       </c>
@@ -1183,8 +1411,18 @@
       <c r="F20" t="s">
         <v>127</v>
       </c>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G20" t="s">
+        <v>24</v>
+      </c>
+      <c r="H20" s="3">
+        <f t="shared" ca="1" si="0"/>
+        <v>45374.389056249995</v>
+      </c>
+      <c r="I20" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>15</v>
       </c>
@@ -1203,8 +1441,18 @@
       <c r="F21" t="s">
         <v>127</v>
       </c>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G21" t="s">
+        <v>24</v>
+      </c>
+      <c r="H21" s="3">
+        <f t="shared" ca="1" si="0"/>
+        <v>45374.389056249995</v>
+      </c>
+      <c r="I21" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>30</v>
       </c>
@@ -1223,8 +1471,18 @@
       <c r="F22" t="s">
         <v>127</v>
       </c>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G22" t="s">
+        <v>24</v>
+      </c>
+      <c r="H22" s="3">
+        <f t="shared" ca="1" si="0"/>
+        <v>45374.389056249995</v>
+      </c>
+      <c r="I22" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>31</v>
       </c>
@@ -1243,8 +1501,18 @@
       <c r="F23" t="s">
         <v>127</v>
       </c>
-    </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G23" t="s">
+        <v>24</v>
+      </c>
+      <c r="H23" s="3">
+        <f t="shared" ca="1" si="0"/>
+        <v>45374.389056249995</v>
+      </c>
+      <c r="I23" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>32</v>
       </c>
@@ -1263,8 +1531,18 @@
       <c r="F24" t="s">
         <v>127</v>
       </c>
-    </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G24" t="s">
+        <v>24</v>
+      </c>
+      <c r="H24" s="3">
+        <f t="shared" ca="1" si="0"/>
+        <v>45374.389056249995</v>
+      </c>
+      <c r="I24" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>33</v>
       </c>
@@ -1283,8 +1561,18 @@
       <c r="F25" t="s">
         <v>127</v>
       </c>
-    </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G25" t="s">
+        <v>24</v>
+      </c>
+      <c r="H25" s="3">
+        <f t="shared" ca="1" si="0"/>
+        <v>45374.389056249995</v>
+      </c>
+      <c r="I25" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>34</v>
       </c>
@@ -1303,8 +1591,18 @@
       <c r="F26" t="s">
         <v>127</v>
       </c>
-    </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G26" t="s">
+        <v>24</v>
+      </c>
+      <c r="H26" s="3">
+        <f t="shared" ca="1" si="0"/>
+        <v>45374.389056249995</v>
+      </c>
+      <c r="I26" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>35</v>
       </c>
@@ -1323,8 +1621,18 @@
       <c r="F27" t="s">
         <v>127</v>
       </c>
-    </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G27" t="s">
+        <v>24</v>
+      </c>
+      <c r="H27" s="3">
+        <f t="shared" ca="1" si="0"/>
+        <v>45374.389056249995</v>
+      </c>
+      <c r="I27" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>36</v>
       </c>
@@ -1343,8 +1651,18 @@
       <c r="F28" t="s">
         <v>127</v>
       </c>
-    </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G28" t="s">
+        <v>24</v>
+      </c>
+      <c r="H28" s="3">
+        <f t="shared" ca="1" si="0"/>
+        <v>45374.389056249995</v>
+      </c>
+      <c r="I28" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>37</v>
       </c>
@@ -1363,8 +1681,18 @@
       <c r="F29" t="s">
         <v>127</v>
       </c>
-    </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G29" t="s">
+        <v>24</v>
+      </c>
+      <c r="H29" s="3">
+        <f t="shared" ca="1" si="0"/>
+        <v>45374.389056249995</v>
+      </c>
+      <c r="I29" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>38</v>
       </c>
@@ -1383,8 +1711,18 @@
       <c r="F30" t="s">
         <v>127</v>
       </c>
-    </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G30" t="s">
+        <v>24</v>
+      </c>
+      <c r="H30" s="3">
+        <f t="shared" ca="1" si="0"/>
+        <v>45374.389056249995</v>
+      </c>
+      <c r="I30" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>39</v>
       </c>
@@ -1403,8 +1741,18 @@
       <c r="F31" t="s">
         <v>127</v>
       </c>
-    </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G31" t="s">
+        <v>24</v>
+      </c>
+      <c r="H31" s="3">
+        <f t="shared" ca="1" si="0"/>
+        <v>45374.389056249995</v>
+      </c>
+      <c r="I31" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>40</v>
       </c>
@@ -1417,14 +1765,24 @@
       <c r="D32" t="s">
         <v>121</v>
       </c>
-      <c r="E32" s="2">
-        <v>1.4002687480483E+17</v>
+      <c r="E32" s="2" t="s">
+        <v>130</v>
       </c>
       <c r="F32" t="s">
         <v>127</v>
       </c>
-    </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G32" s="4" t="s">
+        <v>135</v>
+      </c>
+      <c r="H32" s="3">
+        <f t="shared" ca="1" si="0"/>
+        <v>45374.389056249995</v>
+      </c>
+      <c r="I32" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>41</v>
       </c>
@@ -1443,8 +1801,18 @@
       <c r="F33" t="s">
         <v>127</v>
       </c>
-    </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G33" t="s">
+        <v>24</v>
+      </c>
+      <c r="H33" s="3">
+        <f t="shared" ca="1" si="0"/>
+        <v>45374.389056249995</v>
+      </c>
+      <c r="I33" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>42</v>
       </c>
@@ -1463,8 +1831,18 @@
       <c r="F34" t="s">
         <v>127</v>
       </c>
-    </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G34" t="s">
+        <v>24</v>
+      </c>
+      <c r="H34" s="3">
+        <f t="shared" ca="1" si="0"/>
+        <v>45374.389056249995</v>
+      </c>
+      <c r="I34" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>43</v>
       </c>
@@ -1483,8 +1861,18 @@
       <c r="F35" t="s">
         <v>127</v>
       </c>
-    </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G35" t="s">
+        <v>24</v>
+      </c>
+      <c r="H35" s="3">
+        <f t="shared" ca="1" si="0"/>
+        <v>45374.389056249995</v>
+      </c>
+      <c r="I35" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>44</v>
       </c>
@@ -1503,8 +1891,18 @@
       <c r="F36" t="s">
         <v>127</v>
       </c>
-    </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G36" t="s">
+        <v>24</v>
+      </c>
+      <c r="H36" s="3">
+        <f t="shared" ca="1" si="0"/>
+        <v>45374.389056249995</v>
+      </c>
+      <c r="I36" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>45</v>
       </c>
@@ -1523,8 +1921,18 @@
       <c r="F37" t="s">
         <v>127</v>
       </c>
-    </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G37" t="s">
+        <v>24</v>
+      </c>
+      <c r="H37" s="3">
+        <f t="shared" ca="1" si="0"/>
+        <v>45374.389056249995</v>
+      </c>
+      <c r="I37" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>46</v>
       </c>
@@ -1543,8 +1951,18 @@
       <c r="F38" t="s">
         <v>127</v>
       </c>
-    </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G38" t="s">
+        <v>24</v>
+      </c>
+      <c r="H38" s="3">
+        <f t="shared" ca="1" si="0"/>
+        <v>45374.389056249995</v>
+      </c>
+      <c r="I38" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>47</v>
       </c>
@@ -1563,8 +1981,18 @@
       <c r="F39" t="s">
         <v>127</v>
       </c>
-    </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G39" t="s">
+        <v>24</v>
+      </c>
+      <c r="H39" s="3">
+        <f t="shared" ca="1" si="0"/>
+        <v>45374.389056249995</v>
+      </c>
+      <c r="I39" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>48</v>
       </c>
@@ -1583,8 +2011,18 @@
       <c r="F40" t="s">
         <v>127</v>
       </c>
-    </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G40" t="s">
+        <v>24</v>
+      </c>
+      <c r="H40" s="3">
+        <f t="shared" ca="1" si="0"/>
+        <v>45374.389056249995</v>
+      </c>
+      <c r="I40" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>124</v>
       </c>
@@ -1597,14 +2035,24 @@
       <c r="D41" t="s">
         <v>125</v>
       </c>
-      <c r="E41" s="2">
-        <v>7.0120167348961203E+17</v>
+      <c r="E41" s="2" t="s">
+        <v>131</v>
       </c>
       <c r="F41" t="s">
         <v>127</v>
       </c>
-    </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G41" t="s">
+        <v>24</v>
+      </c>
+      <c r="H41" s="3">
+        <f t="shared" ca="1" si="0"/>
+        <v>45374.389056249995</v>
+      </c>
+      <c r="I41" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>49</v>
       </c>
@@ -1623,8 +2071,18 @@
       <c r="F42" t="s">
         <v>127</v>
       </c>
-    </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G42" t="s">
+        <v>24</v>
+      </c>
+      <c r="H42" s="3">
+        <f t="shared" ca="1" si="0"/>
+        <v>45374.389056249995</v>
+      </c>
+      <c r="I42" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>50</v>
       </c>
@@ -1643,8 +2101,18 @@
       <c r="F43" t="s">
         <v>127</v>
       </c>
-    </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G43" t="s">
+        <v>24</v>
+      </c>
+      <c r="H43" s="3">
+        <f t="shared" ca="1" si="0"/>
+        <v>45374.389056249995</v>
+      </c>
+      <c r="I43" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>52</v>
       </c>
@@ -1657,14 +2125,24 @@
       <c r="D44" t="s">
         <v>121</v>
       </c>
-      <c r="E44" s="2">
-        <v>1.4002687480483E+17</v>
+      <c r="E44" s="2" t="s">
+        <v>130</v>
       </c>
       <c r="F44" t="s">
         <v>127</v>
       </c>
-    </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G44" s="4" t="s">
+        <v>136</v>
+      </c>
+      <c r="H44" s="3">
+        <f t="shared" ca="1" si="0"/>
+        <v>45374.389056249995</v>
+      </c>
+      <c r="I44" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="45" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>53</v>
       </c>
@@ -1683,8 +2161,18 @@
       <c r="F45" t="s">
         <v>127</v>
       </c>
-    </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G45" t="s">
+        <v>24</v>
+      </c>
+      <c r="H45" s="3">
+        <f t="shared" ca="1" si="0"/>
+        <v>45374.389056249995</v>
+      </c>
+      <c r="I45" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="46" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>54</v>
       </c>
@@ -1703,8 +2191,18 @@
       <c r="F46" t="s">
         <v>127</v>
       </c>
-    </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G46" t="s">
+        <v>24</v>
+      </c>
+      <c r="H46" s="3">
+        <f t="shared" ca="1" si="0"/>
+        <v>45374.389056249995</v>
+      </c>
+      <c r="I46" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="47" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>55</v>
       </c>
@@ -1723,8 +2221,18 @@
       <c r="F47" t="s">
         <v>127</v>
       </c>
-    </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G47" t="s">
+        <v>24</v>
+      </c>
+      <c r="H47" s="3">
+        <f t="shared" ca="1" si="0"/>
+        <v>45374.389056249995</v>
+      </c>
+      <c r="I47" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="48" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>56</v>
       </c>
@@ -1743,8 +2251,18 @@
       <c r="F48" t="s">
         <v>127</v>
       </c>
-    </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G48" t="s">
+        <v>24</v>
+      </c>
+      <c r="H48" s="3">
+        <f t="shared" ca="1" si="0"/>
+        <v>45374.389056249995</v>
+      </c>
+      <c r="I48" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="49" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>57</v>
       </c>
@@ -1763,8 +2281,18 @@
       <c r="F49" t="s">
         <v>127</v>
       </c>
-    </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G49" t="s">
+        <v>24</v>
+      </c>
+      <c r="H49" s="3">
+        <f t="shared" ca="1" si="0"/>
+        <v>45374.389056249995</v>
+      </c>
+      <c r="I49" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="50" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>58</v>
       </c>
@@ -1777,14 +2305,24 @@
       <c r="D50" t="s">
         <v>121</v>
       </c>
-      <c r="E50" s="2">
-        <v>1.4002687480483E+17</v>
+      <c r="E50" s="2" t="s">
+        <v>130</v>
       </c>
       <c r="F50" t="s">
         <v>127</v>
       </c>
-    </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G50" s="4" t="s">
+        <v>137</v>
+      </c>
+      <c r="H50" s="3">
+        <f t="shared" ca="1" si="0"/>
+        <v>45374.389056249995</v>
+      </c>
+      <c r="I50" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="51" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>59</v>
       </c>
@@ -1803,8 +2341,18 @@
       <c r="F51" t="s">
         <v>127</v>
       </c>
-    </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G51" t="s">
+        <v>24</v>
+      </c>
+      <c r="H51" s="3">
+        <f t="shared" ca="1" si="0"/>
+        <v>45374.389056249995</v>
+      </c>
+      <c r="I51" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="52" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>60</v>
       </c>
@@ -1823,8 +2371,18 @@
       <c r="F52" t="s">
         <v>127</v>
       </c>
-    </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G52" t="s">
+        <v>24</v>
+      </c>
+      <c r="H52" s="3">
+        <f t="shared" ca="1" si="0"/>
+        <v>45374.389056249995</v>
+      </c>
+      <c r="I52" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="53" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>61</v>
       </c>
@@ -1843,8 +2401,18 @@
       <c r="F53" t="s">
         <v>127</v>
       </c>
-    </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G53" t="s">
+        <v>24</v>
+      </c>
+      <c r="H53" s="3">
+        <f t="shared" ca="1" si="0"/>
+        <v>45374.389056249995</v>
+      </c>
+      <c r="I53" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="54" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>62</v>
       </c>
@@ -1863,8 +2431,18 @@
       <c r="F54" t="s">
         <v>127</v>
       </c>
-    </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G54" t="s">
+        <v>24</v>
+      </c>
+      <c r="H54" s="3">
+        <f t="shared" ca="1" si="0"/>
+        <v>45374.389056249995</v>
+      </c>
+      <c r="I54" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="55" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>63</v>
       </c>
@@ -1883,8 +2461,18 @@
       <c r="F55" t="s">
         <v>127</v>
       </c>
-    </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G55" t="s">
+        <v>24</v>
+      </c>
+      <c r="H55" s="3">
+        <f t="shared" ca="1" si="0"/>
+        <v>45374.389056249995</v>
+      </c>
+      <c r="I55" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="56" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>64</v>
       </c>
@@ -1903,8 +2491,18 @@
       <c r="F56" t="s">
         <v>127</v>
       </c>
-    </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G56" t="s">
+        <v>24</v>
+      </c>
+      <c r="H56" s="3">
+        <f t="shared" ca="1" si="0"/>
+        <v>45374.389056249995</v>
+      </c>
+      <c r="I56" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="57" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>65</v>
       </c>
@@ -1923,8 +2521,18 @@
       <c r="F57" t="s">
         <v>127</v>
       </c>
-    </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G57" t="s">
+        <v>24</v>
+      </c>
+      <c r="H57" s="3">
+        <f t="shared" ca="1" si="0"/>
+        <v>45374.389056249995</v>
+      </c>
+      <c r="I57" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="58" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>66</v>
       </c>
@@ -1943,8 +2551,18 @@
       <c r="F58" t="s">
         <v>127</v>
       </c>
-    </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G58" t="s">
+        <v>24</v>
+      </c>
+      <c r="H58" s="3">
+        <f t="shared" ca="1" si="0"/>
+        <v>45374.389056249995</v>
+      </c>
+      <c r="I58" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="59" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>67</v>
       </c>
@@ -1963,8 +2581,18 @@
       <c r="F59" t="s">
         <v>127</v>
       </c>
-    </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G59" t="s">
+        <v>24</v>
+      </c>
+      <c r="H59" s="3">
+        <f t="shared" ca="1" si="0"/>
+        <v>45374.389056249995</v>
+      </c>
+      <c r="I59" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="60" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>69</v>
       </c>
@@ -1983,8 +2611,18 @@
       <c r="F60" t="s">
         <v>127</v>
       </c>
-    </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G60" t="s">
+        <v>24</v>
+      </c>
+      <c r="H60" s="3">
+        <f t="shared" ca="1" si="0"/>
+        <v>45374.389056249995</v>
+      </c>
+      <c r="I60" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="61" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>70</v>
       </c>
@@ -2003,8 +2641,18 @@
       <c r="F61" t="s">
         <v>127</v>
       </c>
-    </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G61" t="s">
+        <v>24</v>
+      </c>
+      <c r="H61" s="3">
+        <f t="shared" ca="1" si="0"/>
+        <v>45374.389056249995</v>
+      </c>
+      <c r="I61" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="62" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
         <v>71</v>
       </c>
@@ -2023,8 +2671,18 @@
       <c r="F62" t="s">
         <v>127</v>
       </c>
-    </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G62" t="s">
+        <v>24</v>
+      </c>
+      <c r="H62" s="3">
+        <f t="shared" ca="1" si="0"/>
+        <v>45374.389056249995</v>
+      </c>
+      <c r="I62" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="63" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>72</v>
       </c>
@@ -2043,8 +2701,18 @@
       <c r="F63" t="s">
         <v>127</v>
       </c>
-    </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G63" t="s">
+        <v>24</v>
+      </c>
+      <c r="H63" s="3">
+        <f t="shared" ca="1" si="0"/>
+        <v>45374.389056249995</v>
+      </c>
+      <c r="I63" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="64" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
         <v>73</v>
       </c>
@@ -2063,8 +2731,18 @@
       <c r="F64" t="s">
         <v>127</v>
       </c>
-    </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G64" t="s">
+        <v>24</v>
+      </c>
+      <c r="H64" s="3">
+        <f t="shared" ca="1" si="0"/>
+        <v>45374.389056249995</v>
+      </c>
+      <c r="I64" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="65" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
         <v>74</v>
       </c>
@@ -2083,8 +2761,18 @@
       <c r="F65" t="s">
         <v>127</v>
       </c>
-    </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G65" t="s">
+        <v>24</v>
+      </c>
+      <c r="H65" s="3">
+        <f t="shared" ca="1" si="0"/>
+        <v>45374.389056249995</v>
+      </c>
+      <c r="I65" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="66" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
         <v>75</v>
       </c>
@@ -2103,8 +2791,18 @@
       <c r="F66" t="s">
         <v>127</v>
       </c>
-    </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G66" t="s">
+        <v>24</v>
+      </c>
+      <c r="H66" s="3">
+        <f t="shared" ca="1" si="0"/>
+        <v>45374.389056249995</v>
+      </c>
+      <c r="I66" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="67" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
         <v>76</v>
       </c>
@@ -2123,8 +2821,18 @@
       <c r="F67" t="s">
         <v>127</v>
       </c>
-    </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G67" t="s">
+        <v>24</v>
+      </c>
+      <c r="H67" s="3">
+        <f t="shared" ref="H67:H110" ca="1" si="1">NOW()-TIME(8,0,0)</f>
+        <v>45374.389056249995</v>
+      </c>
+      <c r="I67" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="68" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
         <v>77</v>
       </c>
@@ -2143,8 +2851,18 @@
       <c r="F68" t="s">
         <v>127</v>
       </c>
-    </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G68" t="s">
+        <v>24</v>
+      </c>
+      <c r="H68" s="3">
+        <f t="shared" ca="1" si="1"/>
+        <v>45374.389056249995</v>
+      </c>
+      <c r="I68" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="69" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
         <v>78</v>
       </c>
@@ -2163,8 +2881,18 @@
       <c r="F69" t="s">
         <v>127</v>
       </c>
-    </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G69" t="s">
+        <v>24</v>
+      </c>
+      <c r="H69" s="3">
+        <f t="shared" ca="1" si="1"/>
+        <v>45374.389056249995</v>
+      </c>
+      <c r="I69" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="70" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
         <v>79</v>
       </c>
@@ -2183,8 +2911,18 @@
       <c r="F70" t="s">
         <v>127</v>
       </c>
-    </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G70" t="s">
+        <v>24</v>
+      </c>
+      <c r="H70" s="3">
+        <f t="shared" ca="1" si="1"/>
+        <v>45374.389056249995</v>
+      </c>
+      <c r="I70" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="71" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
         <v>80</v>
       </c>
@@ -2203,8 +2941,18 @@
       <c r="F71" t="s">
         <v>127</v>
       </c>
-    </row>
-    <row r="72" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G71" t="s">
+        <v>24</v>
+      </c>
+      <c r="H71" s="3">
+        <f t="shared" ca="1" si="1"/>
+        <v>45374.389056249995</v>
+      </c>
+      <c r="I71" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="72" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
         <v>81</v>
       </c>
@@ -2223,8 +2971,18 @@
       <c r="F72" t="s">
         <v>127</v>
       </c>
-    </row>
-    <row r="73" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G72" t="s">
+        <v>24</v>
+      </c>
+      <c r="H72" s="3">
+        <f t="shared" ca="1" si="1"/>
+        <v>45374.389056249995</v>
+      </c>
+      <c r="I72" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="73" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
         <v>82</v>
       </c>
@@ -2243,8 +3001,18 @@
       <c r="F73" t="s">
         <v>127</v>
       </c>
-    </row>
-    <row r="74" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G73" t="s">
+        <v>24</v>
+      </c>
+      <c r="H73" s="3">
+        <f t="shared" ca="1" si="1"/>
+        <v>45374.389056249995</v>
+      </c>
+      <c r="I73" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="74" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
         <v>84</v>
       </c>
@@ -2263,8 +3031,18 @@
       <c r="F74" t="s">
         <v>127</v>
       </c>
-    </row>
-    <row r="75" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G74" t="s">
+        <v>24</v>
+      </c>
+      <c r="H74" s="3">
+        <f t="shared" ca="1" si="1"/>
+        <v>45374.389056249995</v>
+      </c>
+      <c r="I74" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="75" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
         <v>85</v>
       </c>
@@ -2283,8 +3061,18 @@
       <c r="F75" t="s">
         <v>127</v>
       </c>
-    </row>
-    <row r="76" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G75" t="s">
+        <v>24</v>
+      </c>
+      <c r="H75" s="3">
+        <f t="shared" ca="1" si="1"/>
+        <v>45374.389056249995</v>
+      </c>
+      <c r="I75" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="76" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
         <v>86</v>
       </c>
@@ -2303,8 +3091,18 @@
       <c r="F76" t="s">
         <v>127</v>
       </c>
-    </row>
-    <row r="77" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G76" t="s">
+        <v>24</v>
+      </c>
+      <c r="H76" s="3">
+        <f t="shared" ca="1" si="1"/>
+        <v>45374.389056249995</v>
+      </c>
+      <c r="I76" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="77" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
         <v>87</v>
       </c>
@@ -2323,8 +3121,18 @@
       <c r="F77" t="s">
         <v>127</v>
       </c>
-    </row>
-    <row r="78" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G77" t="s">
+        <v>24</v>
+      </c>
+      <c r="H77" s="3">
+        <f t="shared" ca="1" si="1"/>
+        <v>45374.389056249995</v>
+      </c>
+      <c r="I77" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="78" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
         <v>88</v>
       </c>
@@ -2343,8 +3151,18 @@
       <c r="F78" t="s">
         <v>127</v>
       </c>
-    </row>
-    <row r="79" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G78" t="s">
+        <v>24</v>
+      </c>
+      <c r="H78" s="3">
+        <f t="shared" ca="1" si="1"/>
+        <v>45374.389056249995</v>
+      </c>
+      <c r="I78" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="79" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
         <v>67</v>
       </c>
@@ -2363,8 +3181,18 @@
       <c r="F79" t="s">
         <v>127</v>
       </c>
-    </row>
-    <row r="80" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G79" t="s">
+        <v>24</v>
+      </c>
+      <c r="H79" s="3">
+        <f t="shared" ca="1" si="1"/>
+        <v>45374.389056249995</v>
+      </c>
+      <c r="I79" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="80" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
         <v>89</v>
       </c>
@@ -2383,8 +3211,18 @@
       <c r="F80" t="s">
         <v>127</v>
       </c>
-    </row>
-    <row r="81" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G80" t="s">
+        <v>24</v>
+      </c>
+      <c r="H80" s="3">
+        <f t="shared" ca="1" si="1"/>
+        <v>45374.389056249995</v>
+      </c>
+      <c r="I80" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="81" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
         <v>90</v>
       </c>
@@ -2403,8 +3241,18 @@
       <c r="F81" t="s">
         <v>127</v>
       </c>
-    </row>
-    <row r="82" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G81" t="s">
+        <v>24</v>
+      </c>
+      <c r="H81" s="3">
+        <f t="shared" ca="1" si="1"/>
+        <v>45374.389056249995</v>
+      </c>
+      <c r="I81" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="82" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
         <v>91</v>
       </c>
@@ -2423,8 +3271,18 @@
       <c r="F82" t="s">
         <v>127</v>
       </c>
-    </row>
-    <row r="83" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G82" t="s">
+        <v>24</v>
+      </c>
+      <c r="H82" s="3">
+        <f t="shared" ca="1" si="1"/>
+        <v>45374.389056249995</v>
+      </c>
+      <c r="I82" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="83" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
         <v>92</v>
       </c>
@@ -2443,8 +3301,18 @@
       <c r="F83" t="s">
         <v>127</v>
       </c>
-    </row>
-    <row r="84" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G83" t="s">
+        <v>24</v>
+      </c>
+      <c r="H83" s="3">
+        <f t="shared" ca="1" si="1"/>
+        <v>45374.389056249995</v>
+      </c>
+      <c r="I83" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="84" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
         <v>93</v>
       </c>
@@ -2463,8 +3331,18 @@
       <c r="F84" t="s">
         <v>127</v>
       </c>
-    </row>
-    <row r="85" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G84" t="s">
+        <v>24</v>
+      </c>
+      <c r="H84" s="3">
+        <f t="shared" ca="1" si="1"/>
+        <v>45374.389056249995</v>
+      </c>
+      <c r="I84" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="85" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
         <v>94</v>
       </c>
@@ -2483,8 +3361,18 @@
       <c r="F85" t="s">
         <v>127</v>
       </c>
-    </row>
-    <row r="86" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G85" t="s">
+        <v>24</v>
+      </c>
+      <c r="H85" s="3">
+        <f t="shared" ca="1" si="1"/>
+        <v>45374.389056249995</v>
+      </c>
+      <c r="I85" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="86" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
         <v>96</v>
       </c>
@@ -2503,8 +3391,18 @@
       <c r="F86" t="s">
         <v>127</v>
       </c>
-    </row>
-    <row r="87" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G86" t="s">
+        <v>24</v>
+      </c>
+      <c r="H86" s="3">
+        <f t="shared" ca="1" si="1"/>
+        <v>45374.389056249995</v>
+      </c>
+      <c r="I86" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="87" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
         <v>97</v>
       </c>
@@ -2523,8 +3421,18 @@
       <c r="F87" t="s">
         <v>127</v>
       </c>
-    </row>
-    <row r="88" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G87" t="s">
+        <v>24</v>
+      </c>
+      <c r="H87" s="3">
+        <f t="shared" ca="1" si="1"/>
+        <v>45374.389056249995</v>
+      </c>
+      <c r="I87" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="88" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
         <v>98</v>
       </c>
@@ -2543,8 +3451,18 @@
       <c r="F88" t="s">
         <v>127</v>
       </c>
-    </row>
-    <row r="89" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G88" t="s">
+        <v>24</v>
+      </c>
+      <c r="H88" s="3">
+        <f t="shared" ca="1" si="1"/>
+        <v>45374.389056249995</v>
+      </c>
+      <c r="I88" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="89" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
         <v>99</v>
       </c>
@@ -2557,14 +3475,24 @@
       <c r="D89" t="s">
         <v>121</v>
       </c>
-      <c r="E89" s="2">
-        <v>7.0120167348961203E+17</v>
+      <c r="E89" s="2" t="s">
+        <v>131</v>
       </c>
       <c r="F89" t="s">
         <v>127</v>
       </c>
-    </row>
-    <row r="90" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G89" t="s">
+        <v>24</v>
+      </c>
+      <c r="H89" s="3">
+        <f t="shared" ca="1" si="1"/>
+        <v>45374.389056249995</v>
+      </c>
+      <c r="I89" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="90" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
         <v>100</v>
       </c>
@@ -2583,8 +3511,18 @@
       <c r="F90" t="s">
         <v>127</v>
       </c>
-    </row>
-    <row r="91" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G90" t="s">
+        <v>24</v>
+      </c>
+      <c r="H90" s="3">
+        <f t="shared" ca="1" si="1"/>
+        <v>45374.389056249995</v>
+      </c>
+      <c r="I90" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="91" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
         <v>101</v>
       </c>
@@ -2603,8 +3541,18 @@
       <c r="F91" t="s">
         <v>127</v>
       </c>
-    </row>
-    <row r="92" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G91" t="s">
+        <v>24</v>
+      </c>
+      <c r="H91" s="3">
+        <f t="shared" ca="1" si="1"/>
+        <v>45374.389056249995</v>
+      </c>
+      <c r="I91" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="92" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
         <v>102</v>
       </c>
@@ -2623,8 +3571,18 @@
       <c r="F92" t="s">
         <v>127</v>
       </c>
-    </row>
-    <row r="93" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G92" t="s">
+        <v>24</v>
+      </c>
+      <c r="H92" s="3">
+        <f t="shared" ca="1" si="1"/>
+        <v>45374.389056249995</v>
+      </c>
+      <c r="I92" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="93" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
         <v>103</v>
       </c>
@@ -2643,8 +3601,18 @@
       <c r="F93" t="s">
         <v>127</v>
       </c>
-    </row>
-    <row r="94" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G93" t="s">
+        <v>24</v>
+      </c>
+      <c r="H93" s="3">
+        <f t="shared" ca="1" si="1"/>
+        <v>45374.389056249995</v>
+      </c>
+      <c r="I93" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="94" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
         <v>104</v>
       </c>
@@ -2663,8 +3631,18 @@
       <c r="F94" t="s">
         <v>127</v>
       </c>
-    </row>
-    <row r="95" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G94" t="s">
+        <v>24</v>
+      </c>
+      <c r="H94" s="3">
+        <f t="shared" ca="1" si="1"/>
+        <v>45374.389056249995</v>
+      </c>
+      <c r="I94" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="95" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
         <v>105</v>
       </c>
@@ -2683,8 +3661,18 @@
       <c r="F95" t="s">
         <v>127</v>
       </c>
-    </row>
-    <row r="96" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G95" t="s">
+        <v>24</v>
+      </c>
+      <c r="H95" s="3">
+        <f t="shared" ca="1" si="1"/>
+        <v>45374.389056249995</v>
+      </c>
+      <c r="I95" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="96" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
         <v>107</v>
       </c>
@@ -2703,8 +3691,18 @@
       <c r="F96" t="s">
         <v>127</v>
       </c>
-    </row>
-    <row r="97" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G96" t="s">
+        <v>24</v>
+      </c>
+      <c r="H96" s="3">
+        <f t="shared" ca="1" si="1"/>
+        <v>45374.389056249995</v>
+      </c>
+      <c r="I96" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="97" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
         <v>108</v>
       </c>
@@ -2723,8 +3721,18 @@
       <c r="F97" t="s">
         <v>127</v>
       </c>
-    </row>
-    <row r="98" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G97" t="s">
+        <v>24</v>
+      </c>
+      <c r="H97" s="3">
+        <f t="shared" ca="1" si="1"/>
+        <v>45374.389056249995</v>
+      </c>
+      <c r="I97" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="98" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
         <v>129</v>
       </c>
@@ -2743,8 +3751,18 @@
       <c r="F98" t="s">
         <v>127</v>
       </c>
-    </row>
-    <row r="99" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G98" t="s">
+        <v>24</v>
+      </c>
+      <c r="H98" s="3">
+        <f t="shared" ca="1" si="1"/>
+        <v>45374.389056249995</v>
+      </c>
+      <c r="I98" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="99" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
         <v>109</v>
       </c>
@@ -2763,8 +3781,18 @@
       <c r="F99" t="s">
         <v>127</v>
       </c>
-    </row>
-    <row r="100" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G99" t="s">
+        <v>24</v>
+      </c>
+      <c r="H99" s="3">
+        <f t="shared" ca="1" si="1"/>
+        <v>45374.389056249995</v>
+      </c>
+      <c r="I99" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="100" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
         <v>110</v>
       </c>
@@ -2777,14 +3805,24 @@
       <c r="D100" t="s">
         <v>123</v>
       </c>
-      <c r="E100" s="2">
-        <v>1.4002687480483E+17</v>
+      <c r="E100" s="2" t="s">
+        <v>130</v>
       </c>
       <c r="F100" t="s">
         <v>127</v>
       </c>
-    </row>
-    <row r="101" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G100" t="s">
+        <v>24</v>
+      </c>
+      <c r="H100" s="3">
+        <f t="shared" ca="1" si="1"/>
+        <v>45374.389056249995</v>
+      </c>
+      <c r="I100" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="101" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
         <v>111</v>
       </c>
@@ -2803,8 +3841,18 @@
       <c r="F101" t="s">
         <v>127</v>
       </c>
-    </row>
-    <row r="102" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G101" t="s">
+        <v>24</v>
+      </c>
+      <c r="H101" s="3">
+        <f t="shared" ca="1" si="1"/>
+        <v>45374.389056249995</v>
+      </c>
+      <c r="I101" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="102" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
         <v>112</v>
       </c>
@@ -2823,8 +3871,18 @@
       <c r="F102" t="s">
         <v>127</v>
       </c>
-    </row>
-    <row r="103" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G102" t="s">
+        <v>24</v>
+      </c>
+      <c r="H102" s="3">
+        <f t="shared" ca="1" si="1"/>
+        <v>45374.389056249995</v>
+      </c>
+      <c r="I102" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="103" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
         <v>113</v>
       </c>
@@ -2843,8 +3901,18 @@
       <c r="F103" t="s">
         <v>127</v>
       </c>
-    </row>
-    <row r="104" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G103" t="s">
+        <v>24</v>
+      </c>
+      <c r="H103" s="3">
+        <f t="shared" ca="1" si="1"/>
+        <v>45374.389056249995</v>
+      </c>
+      <c r="I103" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="104" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
         <v>114</v>
       </c>
@@ -2863,8 +3931,18 @@
       <c r="F104" t="s">
         <v>127</v>
       </c>
-    </row>
-    <row r="105" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G104" t="s">
+        <v>24</v>
+      </c>
+      <c r="H104" s="3">
+        <f t="shared" ca="1" si="1"/>
+        <v>45374.389056249995</v>
+      </c>
+      <c r="I104" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="105" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
         <v>115</v>
       </c>
@@ -2883,8 +3961,18 @@
       <c r="F105" t="s">
         <v>127</v>
       </c>
-    </row>
-    <row r="106" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G105" t="s">
+        <v>24</v>
+      </c>
+      <c r="H105" s="3">
+        <f t="shared" ca="1" si="1"/>
+        <v>45374.389056249995</v>
+      </c>
+      <c r="I105" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="106" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
         <v>116</v>
       </c>
@@ -2903,8 +3991,18 @@
       <c r="F106" t="s">
         <v>127</v>
       </c>
-    </row>
-    <row r="107" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G106" t="s">
+        <v>24</v>
+      </c>
+      <c r="H106" s="3">
+        <f t="shared" ca="1" si="1"/>
+        <v>45374.389056249995</v>
+      </c>
+      <c r="I106" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="107" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
         <v>117</v>
       </c>
@@ -2923,8 +4021,18 @@
       <c r="F107" t="s">
         <v>127</v>
       </c>
-    </row>
-    <row r="108" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G107" t="s">
+        <v>24</v>
+      </c>
+      <c r="H107" s="3">
+        <f t="shared" ca="1" si="1"/>
+        <v>45374.389056249995</v>
+      </c>
+      <c r="I107" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="108" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
         <v>118</v>
       </c>
@@ -2943,8 +4051,18 @@
       <c r="F108" t="s">
         <v>127</v>
       </c>
-    </row>
-    <row r="109" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G108" t="s">
+        <v>24</v>
+      </c>
+      <c r="H108" s="3">
+        <f t="shared" ca="1" si="1"/>
+        <v>45374.389056249995</v>
+      </c>
+      <c r="I108" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="109" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
         <v>119</v>
       </c>
@@ -2963,8 +4081,18 @@
       <c r="F109" t="s">
         <v>127</v>
       </c>
-    </row>
-    <row r="110" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G109" t="s">
+        <v>24</v>
+      </c>
+      <c r="H109" s="3">
+        <f t="shared" ca="1" si="1"/>
+        <v>45374.389056249995</v>
+      </c>
+      <c r="I109" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="110" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
         <v>122</v>
       </c>
@@ -2977,15 +4105,27 @@
       <c r="D110" t="s">
         <v>123</v>
       </c>
-      <c r="E110" s="2">
-        <v>7.0120167348961203E+17</v>
+      <c r="E110" s="2" t="s">
+        <v>131</v>
       </c>
       <c r="F110" t="s">
         <v>127</v>
       </c>
+      <c r="G110" t="s">
+        <v>24</v>
+      </c>
+      <c r="H110" s="3">
+        <f t="shared" ca="1" si="1"/>
+        <v>45374.389056249995</v>
+      </c>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="G32" r:id="rId1" xr:uid="{ACCFB374-AE32-4978-8686-9AD20C804299}"/>
+    <hyperlink ref="G44" r:id="rId2" xr:uid="{4B4FB13E-9786-4AA6-87E6-66F231512210}"/>
+    <hyperlink ref="G50" r:id="rId3" xr:uid="{D9EEEB5A-6AF1-4162-AB1D-3B346108C5EF}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
+  <pageSetup orientation="portrait" r:id="rId4"/>
 </worksheet>
 </file>